--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK175"/>
+  <dimension ref="A1:BK178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.07</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT6" t="n">
         <v>1.2</v>
@@ -2933,7 +2933,7 @@
         <v>1.47</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.07</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU14" t="n">
         <v>1.21</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU15" t="n">
         <v>1.6</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT18" t="n">
         <v>1.71</v>
@@ -4557,7 +4557,7 @@
         <v>2.4</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU20" t="n">
         <v>1.76</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT22" t="n">
         <v>1.57</v>
@@ -5978,7 +5978,7 @@
         <v>1.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU27" t="n">
         <v>2.17</v>
@@ -6384,7 +6384,7 @@
         <v>2.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU29" t="n">
         <v>1.71</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT30" t="n">
         <v>0.93</v>
@@ -7196,7 +7196,7 @@
         <v>1.79</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU33" t="n">
         <v>1.98</v>
@@ -7396,7 +7396,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT34" t="n">
         <v>1.6</v>
@@ -8008,7 +8008,7 @@
         <v>1.47</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU37" t="n">
         <v>1.86</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT39" t="n">
         <v>1.33</v>
@@ -9226,7 +9226,7 @@
         <v>0.87</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU43" t="n">
         <v>1.41</v>
@@ -9835,7 +9835,7 @@
         <v>1.64</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU46" t="n">
         <v>1.25</v>
@@ -10241,7 +10241,7 @@
         <v>1.79</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU48" t="n">
         <v>2.25</v>
@@ -10441,7 +10441,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT49" t="n">
         <v>0.8</v>
@@ -11456,10 +11456,10 @@
         <v>2.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU54" t="n">
         <v>1.37</v>
@@ -12065,7 +12065,7 @@
         <v>0.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT57" t="n">
         <v>1.13</v>
@@ -12268,7 +12268,7 @@
         <v>1.75</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT58" t="n">
         <v>1.57</v>
@@ -12880,7 +12880,7 @@
         <v>1.79</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU61" t="n">
         <v>1.98</v>
@@ -13083,7 +13083,7 @@
         <v>1.64</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU62" t="n">
         <v>1.33</v>
@@ -13692,7 +13692,7 @@
         <v>1.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU65" t="n">
         <v>1.87</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU68" t="n">
         <v>1.85</v>
@@ -15516,10 +15516,10 @@
         <v>2.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU74" t="n">
         <v>1.34</v>
@@ -15922,7 +15922,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT76" t="n">
         <v>1.13</v>
@@ -16534,7 +16534,7 @@
         <v>2.4</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU79" t="n">
         <v>1.75</v>
@@ -16737,7 +16737,7 @@
         <v>0.53</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU80" t="n">
         <v>1.2</v>
@@ -17752,7 +17752,7 @@
         <v>1.07</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU85" t="n">
         <v>1.65</v>
@@ -17952,7 +17952,7 @@
         <v>1.57</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT86" t="n">
         <v>1.71</v>
@@ -18155,7 +18155,7 @@
         <v>1.71</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT87" t="n">
         <v>1.33</v>
@@ -18767,7 +18767,7 @@
         <v>2.5</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU90" t="n">
         <v>1.74</v>
@@ -19579,7 +19579,7 @@
         <v>0.53</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU94" t="n">
         <v>1.13</v>
@@ -20391,7 +20391,7 @@
         <v>2.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU98" t="n">
         <v>1.85</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT99" t="n">
         <v>1.2</v>
@@ -21203,7 +21203,7 @@
         <v>1.6</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU102" t="n">
         <v>1.98</v>
@@ -21812,7 +21812,7 @@
         <v>0.87</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU105" t="n">
         <v>1.6</v>
@@ -22418,10 +22418,10 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU108" t="n">
         <v>1.58</v>
@@ -24045,7 +24045,7 @@
         <v>0.53</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU116" t="n">
         <v>1.13</v>
@@ -24854,7 +24854,7 @@
         <v>1.22</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT120" t="n">
         <v>1.2</v>
@@ -25060,7 +25060,7 @@
         <v>1</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU121" t="n">
         <v>1.91</v>
@@ -25260,7 +25260,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT122" t="n">
         <v>1.6</v>
@@ -25466,7 +25466,7 @@
         <v>2.4</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU123" t="n">
         <v>2.01</v>
@@ -25869,7 +25869,7 @@
         <v>0.9</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT125" t="n">
         <v>0.93</v>
@@ -26481,7 +26481,7 @@
         <v>1.64</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -27493,10 +27493,10 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU133" t="n">
         <v>1.49</v>
@@ -27902,7 +27902,7 @@
         <v>0.87</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU135" t="n">
         <v>1.57</v>
@@ -28305,7 +28305,7 @@
         <v>1.55</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT137" t="n">
         <v>1.6</v>
@@ -28511,7 +28511,7 @@
         <v>1.6</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU138" t="n">
         <v>2.05</v>
@@ -29929,10 +29929,10 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU145" t="n">
         <v>1.45</v>
@@ -30541,7 +30541,7 @@
         <v>0.53</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU148" t="n">
         <v>1.3</v>
@@ -30744,7 +30744,7 @@
         <v>1.79</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU149" t="n">
         <v>1.7</v>
@@ -31553,7 +31553,7 @@
         <v>0.75</v>
       </c>
       <c r="AS153" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT153" t="n">
         <v>0.93</v>
@@ -31759,7 +31759,7 @@
         <v>1.64</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU154" t="n">
         <v>1.59</v>
@@ -32162,7 +32162,7 @@
         <v>1.83</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT156" t="n">
         <v>1.57</v>
@@ -32977,7 +32977,7 @@
         <v>1.64</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU160" t="n">
         <v>1.59</v>
@@ -33786,7 +33786,7 @@
         <v>1.08</v>
       </c>
       <c r="AS164" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT164" t="n">
         <v>1.33</v>
@@ -34192,7 +34192,7 @@
         <v>1.08</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT166" t="n">
         <v>1.2</v>
@@ -34398,7 +34398,7 @@
         <v>2.5</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU167" t="n">
         <v>1.79</v>
@@ -34601,7 +34601,7 @@
         <v>0.53</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU168" t="n">
         <v>1.29</v>
@@ -36073,6 +36073,615 @@
         <v>10</v>
       </c>
       <c r="BK175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5396358</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45037.625</v>
+      </c>
+      <c r="F176" t="n">
+        <v>8</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>7</v>
+      </c>
+      <c r="R176" t="n">
+        <v>12</v>
+      </c>
+      <c r="S176" t="n">
+        <v>19</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V176" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5396359</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45037.625</v>
+      </c>
+      <c r="F177" t="n">
+        <v>8</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>8</v>
+      </c>
+      <c r="R177" t="n">
+        <v>4</v>
+      </c>
+      <c r="S177" t="n">
+        <v>12</v>
+      </c>
+      <c r="T177" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V177" t="n">
+        <v>4</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5396360</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45037.625</v>
+      </c>
+      <c r="F178" t="n">
+        <v>8</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2</v>
+      </c>
+      <c r="K178" t="n">
+        <v>3</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2</v>
+      </c>
+      <c r="M178" t="n">
+        <v>3</v>
+      </c>
+      <c r="N178" t="n">
+        <v>5</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['24', '69']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['36', '43', '78']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>10</v>
+      </c>
+      <c r="R178" t="n">
+        <v>6</v>
+      </c>
+      <c r="S178" t="n">
+        <v>16</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK178" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK178"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.53</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT8" t="n">
         <v>0.8</v>
@@ -2324,7 +2324,7 @@
         <v>0.87</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
         <v>1.2</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU17" t="n">
         <v>0.91</v>
@@ -4151,7 +4151,7 @@
         <v>2.07</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU18" t="n">
         <v>1.02</v>
@@ -4963,7 +4963,7 @@
         <v>2.07</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU22" t="n">
         <v>1.29</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT23" t="n">
         <v>1.13</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT29" t="n">
         <v>0.87</v>
@@ -6587,7 +6587,7 @@
         <v>0.93</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU30" t="n">
         <v>1.47</v>
@@ -6787,10 +6787,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU31" t="n">
         <v>1.33</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT32" t="n">
         <v>1.33</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT33" t="n">
         <v>1.47</v>
@@ -7805,7 +7805,7 @@
         <v>0.53</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU36" t="n">
         <v>0.96</v>
@@ -8617,7 +8617,7 @@
         <v>1.47</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU40" t="n">
         <v>2.01</v>
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT42" t="n">
         <v>1.2</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU45" t="n">
         <v>1.8</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT46" t="n">
         <v>1.73</v>
@@ -10038,7 +10038,7 @@
         <v>2.4</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU47" t="n">
         <v>2.17</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT48" t="n">
         <v>0.87</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT50" t="n">
         <v>1.13</v>
@@ -10850,7 +10850,7 @@
         <v>0.87</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11865,7 +11865,7 @@
         <v>0.87</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU56" t="n">
         <v>1.59</v>
@@ -12271,7 +12271,7 @@
         <v>0.93</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU58" t="n">
         <v>1.48</v>
@@ -12877,7 +12877,7 @@
         <v>2.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
         <v>1.73</v>
@@ -13080,7 +13080,7 @@
         <v>1.4</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT62" t="n">
         <v>0.87</v>
@@ -13286,7 +13286,7 @@
         <v>1.47</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU63" t="n">
         <v>2.1</v>
@@ -14095,7 +14095,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT67" t="n">
         <v>0.8</v>
@@ -14504,7 +14504,7 @@
         <v>1.07</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU69" t="n">
         <v>1.69</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT71" t="n">
         <v>1.2</v>
@@ -15113,7 +15113,7 @@
         <v>1.47</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU72" t="n">
         <v>2.1</v>
@@ -15313,7 +15313,7 @@
         <v>0.4</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT73" t="n">
         <v>0.8</v>
@@ -16128,7 +16128,7 @@
         <v>1.6</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU77" t="n">
         <v>1.92</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT78" t="n">
         <v>1.6</v>
@@ -17343,10 +17343,10 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU83" t="n">
         <v>1.86</v>
@@ -17546,7 +17546,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT84" t="n">
         <v>1.2</v>
@@ -17955,7 +17955,7 @@
         <v>0.93</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU86" t="n">
         <v>1.4</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU89" t="n">
         <v>1.89</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT90" t="n">
         <v>1.73</v>
@@ -18967,10 +18967,10 @@
         <v>0.71</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU91" t="n">
         <v>1.95</v>
@@ -19985,7 +19985,7 @@
         <v>1.07</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU96" t="n">
         <v>1.69</v>
@@ -20185,7 +20185,7 @@
         <v>1.57</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT97" t="n">
         <v>1.6</v>
@@ -20388,7 +20388,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT98" t="n">
         <v>1.47</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT100" t="n">
         <v>1.33</v>
@@ -21000,7 +21000,7 @@
         <v>2.4</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU101" t="n">
         <v>1.93</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU106" t="n">
         <v>1.93</v>
@@ -22215,10 +22215,10 @@
         <v>2.38</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU107" t="n">
         <v>1.43</v>
@@ -22827,7 +22827,7 @@
         <v>1.07</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU110" t="n">
         <v>1.68</v>
@@ -23027,10 +23027,10 @@
         <v>2.11</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU111" t="n">
         <v>1.87</v>
@@ -23636,7 +23636,7 @@
         <v>1.22</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT114" t="n">
         <v>1.2</v>
@@ -24448,10 +24448,10 @@
         <v>1.56</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU118" t="n">
         <v>1.87</v>
@@ -25666,10 +25666,10 @@
         <v>1.9</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU124" t="n">
         <v>1.86</v>
@@ -25872,7 +25872,7 @@
         <v>2.07</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU125" t="n">
         <v>1.52</v>
@@ -26275,7 +26275,7 @@
         <v>1.3</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT127" t="n">
         <v>1.33</v>
@@ -26478,7 +26478,7 @@
         <v>1.7</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT128" t="n">
         <v>1.47</v>
@@ -27293,7 +27293,7 @@
         <v>1.6</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU132" t="n">
         <v>2.12</v>
@@ -27699,7 +27699,7 @@
         <v>1.07</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU134" t="n">
         <v>1.68</v>
@@ -28102,7 +28102,7 @@
         <v>0.73</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT136" t="n">
         <v>0.8</v>
@@ -29523,10 +29523,10 @@
         <v>1.82</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU143" t="n">
         <v>1.85</v>
@@ -29726,10 +29726,10 @@
         <v>1.73</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU144" t="n">
         <v>1.81</v>
@@ -30741,7 +30741,7 @@
         <v>1.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT149" t="n">
         <v>1.47</v>
@@ -31350,7 +31350,7 @@
         <v>1.17</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT152" t="n">
         <v>1.2</v>
@@ -31556,7 +31556,7 @@
         <v>0.93</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU153" t="n">
         <v>1.5</v>
@@ -31756,7 +31756,7 @@
         <v>1.58</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT154" t="n">
         <v>1.73</v>
@@ -31962,7 +31962,7 @@
         <v>1</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU155" t="n">
         <v>1.91</v>
@@ -32165,7 +32165,7 @@
         <v>2.07</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU156" t="n">
         <v>1.48</v>
@@ -32974,7 +32974,7 @@
         <v>0.92</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT160" t="n">
         <v>0.87</v>
@@ -33177,7 +33177,7 @@
         <v>1.15</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT161" t="n">
         <v>1.2</v>
@@ -33383,7 +33383,7 @@
         <v>1.47</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU162" t="n">
         <v>1.77</v>
@@ -33586,7 +33586,7 @@
         <v>1.6</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU163" t="n">
         <v>2</v>
@@ -34395,7 +34395,7 @@
         <v>1.62</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT167" t="n">
         <v>1.47</v>
@@ -34804,7 +34804,7 @@
         <v>2.4</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU169" t="n">
         <v>2.09</v>
@@ -36683,6 +36683,615 @@
       </c>
       <c r="BK178" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5396361</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>2</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2</v>
+      </c>
+      <c r="L179" t="n">
+        <v>3</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['6', '26', '77']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>2</v>
+      </c>
+      <c r="R179" t="n">
+        <v>6</v>
+      </c>
+      <c r="S179" t="n">
+        <v>8</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V179" t="n">
+        <v>4</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X179" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5396363</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45038.625</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>3</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['47', '57', '87']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>6</v>
+      </c>
+      <c r="R180" t="n">
+        <v>3</v>
+      </c>
+      <c r="S180" t="n">
+        <v>9</v>
+      </c>
+      <c r="T180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V180" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X180" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5396362</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45038.625</v>
+      </c>
+      <c r="F181" t="n">
+        <v>8</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>3</v>
+      </c>
+      <c r="N181" t="n">
+        <v>3</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['9', '28', '48']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>6</v>
+      </c>
+      <c r="R181" t="n">
+        <v>6</v>
+      </c>
+      <c r="S181" t="n">
+        <v>12</v>
+      </c>
+      <c r="T181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V181" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -35855,22 +35855,22 @@
         <v>3.4</v>
       </c>
       <c r="BF174" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG174" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BH174" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BI174" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BJ174" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BK174" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT7" t="n">
         <v>1.13</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.53</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT16" t="n">
         <v>1.6</v>
@@ -3948,7 +3948,7 @@
         <v>1.73</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU17" t="n">
         <v>0.91</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT21" t="n">
         <v>0.8</v>
@@ -4963,7 +4963,7 @@
         <v>2.07</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU22" t="n">
         <v>1.29</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT28" t="n">
         <v>1.2</v>
@@ -6587,7 +6587,7 @@
         <v>0.93</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU30" t="n">
         <v>1.47</v>
@@ -7805,7 +7805,7 @@
         <v>0.53</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU36" t="n">
         <v>0.96</v>
@@ -9223,7 +9223,7 @@
         <v>2.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT43" t="n">
         <v>1.47</v>
@@ -9629,10 +9629,10 @@
         <v>1.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU45" t="n">
         <v>1.8</v>
@@ -10038,7 +10038,7 @@
         <v>2.4</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU47" t="n">
         <v>2.17</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT51" t="n">
         <v>1.8</v>
@@ -11862,10 +11862,10 @@
         <v>1.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU56" t="n">
         <v>1.59</v>
@@ -12271,7 +12271,7 @@
         <v>0.93</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU58" t="n">
         <v>1.48</v>
@@ -12471,7 +12471,7 @@
         <v>1.6</v>
       </c>
       <c r="AS59" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT59" t="n">
         <v>1.33</v>
@@ -13286,7 +13286,7 @@
         <v>1.47</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU63" t="n">
         <v>2.1</v>
@@ -14298,7 +14298,7 @@
         <v>1.17</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT68" t="n">
         <v>0.87</v>
@@ -15113,7 +15113,7 @@
         <v>1.47</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU72" t="n">
         <v>2.1</v>
@@ -15719,7 +15719,7 @@
         <v>1.83</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT75" t="n">
         <v>1.33</v>
@@ -16128,7 +16128,7 @@
         <v>1.6</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU77" t="n">
         <v>1.92</v>
@@ -18358,7 +18358,7 @@
         <v>0.71</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT88" t="n">
         <v>1.13</v>
@@ -18561,10 +18561,10 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU89" t="n">
         <v>1.89</v>
@@ -18970,7 +18970,7 @@
         <v>1.67</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU91" t="n">
         <v>1.95</v>
@@ -19170,7 +19170,7 @@
         <v>0.29</v>
       </c>
       <c r="AS92" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT92" t="n">
         <v>0.8</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT93" t="n">
         <v>1.2</v>
@@ -19985,7 +19985,7 @@
         <v>1.07</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU96" t="n">
         <v>1.69</v>
@@ -21000,7 +21000,7 @@
         <v>2.4</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU101" t="n">
         <v>1.93</v>
@@ -21809,7 +21809,7 @@
         <v>1.88</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT105" t="n">
         <v>1.73</v>
@@ -22012,7 +22012,7 @@
         <v>1.38</v>
       </c>
       <c r="AS106" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT106" t="n">
         <v>1.8</v>
@@ -22218,7 +22218,7 @@
         <v>1.73</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU107" t="n">
         <v>1.43</v>
@@ -22827,7 +22827,7 @@
         <v>1.07</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU110" t="n">
         <v>1.68</v>
@@ -23030,7 +23030,7 @@
         <v>2.53</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU111" t="n">
         <v>1.87</v>
@@ -23230,7 +23230,7 @@
         <v>1.25</v>
       </c>
       <c r="AS112" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT112" t="n">
         <v>1.2</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT119" t="n">
         <v>1.6</v>
@@ -25057,7 +25057,7 @@
         <v>1.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT121" t="n">
         <v>1.73</v>
@@ -25669,7 +25669,7 @@
         <v>1.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU124" t="n">
         <v>1.86</v>
@@ -25872,7 +25872,7 @@
         <v>2.07</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU125" t="n">
         <v>1.52</v>
@@ -26681,7 +26681,7 @@
         <v>1.1</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT129" t="n">
         <v>1.2</v>
@@ -27699,7 +27699,7 @@
         <v>1.07</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU134" t="n">
         <v>1.68</v>
@@ -27899,7 +27899,7 @@
         <v>1.73</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT135" t="n">
         <v>1.73</v>
@@ -29117,7 +29117,7 @@
         <v>1.09</v>
       </c>
       <c r="AS141" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT141" t="n">
         <v>1.2</v>
@@ -29729,7 +29729,7 @@
         <v>1.67</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU144" t="n">
         <v>1.81</v>
@@ -31556,7 +31556,7 @@
         <v>0.93</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU153" t="n">
         <v>1.5</v>
@@ -31959,7 +31959,7 @@
         <v>1.67</v>
       </c>
       <c r="AS155" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT155" t="n">
         <v>1.8</v>
@@ -32165,7 +32165,7 @@
         <v>2.07</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU156" t="n">
         <v>1.48</v>
@@ -32365,7 +32365,7 @@
         <v>1.08</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT157" t="n">
         <v>1.33</v>
@@ -32568,7 +32568,7 @@
         <v>1.54</v>
       </c>
       <c r="AS158" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT158" t="n">
         <v>1.6</v>
@@ -33383,7 +33383,7 @@
         <v>1.47</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU162" t="n">
         <v>1.77</v>
@@ -33989,7 +33989,7 @@
         <v>1.08</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT165" t="n">
         <v>1.13</v>
@@ -34804,7 +34804,7 @@
         <v>2.4</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU169" t="n">
         <v>2.09</v>
@@ -35410,7 +35410,7 @@
         <v>0.79</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT172" t="n">
         <v>0.8</v>
@@ -35613,7 +35613,7 @@
         <v>1.21</v>
       </c>
       <c r="AS173" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT173" t="n">
         <v>1.2</v>
@@ -36834,7 +36834,7 @@
         <v>1.73</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU179" t="n">
         <v>1.66</v>
@@ -37037,7 +37037,7 @@
         <v>2.53</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU180" t="n">
         <v>1.78</v>
@@ -37292,6 +37292,412 @@
       </c>
       <c r="BK181" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5396364</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45051.625</v>
+      </c>
+      <c r="F182" t="n">
+        <v>9</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2</v>
+      </c>
+      <c r="K182" t="n">
+        <v>2</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>2</v>
+      </c>
+      <c r="N182" t="n">
+        <v>2</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['12', '41']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>6</v>
+      </c>
+      <c r="R182" t="n">
+        <v>5</v>
+      </c>
+      <c r="S182" t="n">
+        <v>11</v>
+      </c>
+      <c r="T182" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V182" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5396365</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45051.625</v>
+      </c>
+      <c r="F183" t="n">
+        <v>9</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>7</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
+      <c r="S183" t="n">
+        <v>7</v>
+      </c>
+      <c r="T183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0.53</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT5" t="n">
         <v>0.87</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT6" t="n">
         <v>1.2</v>
@@ -1918,7 +1918,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT14" t="n">
         <v>0.87</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU15" t="n">
         <v>1.6</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU18" t="n">
         <v>1.02</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT22" t="n">
         <v>1.56</v>
@@ -5166,7 +5166,7 @@
         <v>1.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU23" t="n">
         <v>2.2</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT26" t="n">
         <v>1.2</v>
@@ -5978,7 +5978,7 @@
         <v>1.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU27" t="n">
         <v>2.17</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT30" t="n">
         <v>0.88</v>
@@ -6790,7 +6790,7 @@
         <v>1.73</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU31" t="n">
         <v>1.33</v>
@@ -7396,7 +7396,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT34" t="n">
         <v>1.6</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT39" t="n">
         <v>1.33</v>
@@ -8617,7 +8617,7 @@
         <v>1.47</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU40" t="n">
         <v>2.01</v>
@@ -8820,7 +8820,7 @@
         <v>1.6</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -9426,7 +9426,7 @@
         <v>1.25</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT44" t="n">
         <v>1.6</v>
@@ -9835,7 +9835,7 @@
         <v>1.73</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU46" t="n">
         <v>1.25</v>
@@ -10441,7 +10441,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT49" t="n">
         <v>0.8</v>
@@ -10647,7 +10647,7 @@
         <v>2.53</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU50" t="n">
         <v>1.81</v>
@@ -10850,7 +10850,7 @@
         <v>0.88</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11456,7 +11456,7 @@
         <v>2.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT54" t="n">
         <v>1.47</v>
@@ -12065,10 +12065,10 @@
         <v>0.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU57" t="n">
         <v>1.31</v>
@@ -12268,7 +12268,7 @@
         <v>1.75</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT58" t="n">
         <v>1.56</v>
@@ -12880,7 +12880,7 @@
         <v>1.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU61" t="n">
         <v>1.98</v>
@@ -13486,7 +13486,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT64" t="n">
         <v>1.2</v>
@@ -14501,10 +14501,10 @@
         <v>1.4</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU69" t="n">
         <v>1.69</v>
@@ -14707,7 +14707,7 @@
         <v>0.53</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU70" t="n">
         <v>1.16</v>
@@ -15516,7 +15516,7 @@
         <v>2.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT74" t="n">
         <v>1.47</v>
@@ -15922,10 +15922,10 @@
         <v>0.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU76" t="n">
         <v>1.43</v>
@@ -16534,7 +16534,7 @@
         <v>2.4</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU79" t="n">
         <v>1.75</v>
@@ -17346,7 +17346,7 @@
         <v>2.53</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU83" t="n">
         <v>1.86</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT85" t="n">
         <v>1.47</v>
@@ -17952,10 +17952,10 @@
         <v>1.57</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU86" t="n">
         <v>1.4</v>
@@ -18155,7 +18155,7 @@
         <v>1.71</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT87" t="n">
         <v>1.33</v>
@@ -18361,7 +18361,7 @@
         <v>0.88</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU88" t="n">
         <v>1.58</v>
@@ -18767,7 +18767,7 @@
         <v>2.53</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU90" t="n">
         <v>1.74</v>
@@ -19579,7 +19579,7 @@
         <v>0.53</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU94" t="n">
         <v>1.13</v>
@@ -19982,7 +19982,7 @@
         <v>2.29</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT96" t="n">
         <v>1.56</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT99" t="n">
         <v>1.2</v>
@@ -21406,7 +21406,7 @@
         <v>1.47</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU103" t="n">
         <v>1.92</v>
@@ -21812,7 +21812,7 @@
         <v>0.88</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU105" t="n">
         <v>1.6</v>
@@ -22015,7 +22015,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU106" t="n">
         <v>1.93</v>
@@ -22418,10 +22418,10 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU108" t="n">
         <v>1.58</v>
@@ -22624,7 +22624,7 @@
         <v>2.4</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU109" t="n">
         <v>2.01</v>
@@ -22824,7 +22824,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT110" t="n">
         <v>0.88</v>
@@ -23433,7 +23433,7 @@
         <v>0.25</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT113" t="n">
         <v>0.8</v>
@@ -24451,7 +24451,7 @@
         <v>1.67</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU118" t="n">
         <v>1.87</v>
@@ -24854,7 +24854,7 @@
         <v>1.22</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT120" t="n">
         <v>1.2</v>
@@ -25060,7 +25060,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU121" t="n">
         <v>1.91</v>
@@ -25260,7 +25260,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT122" t="n">
         <v>1.6</v>
@@ -25869,7 +25869,7 @@
         <v>0.9</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT125" t="n">
         <v>0.88</v>
@@ -26072,10 +26072,10 @@
         <v>0.8</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU126" t="n">
         <v>1.64</v>
@@ -27293,7 +27293,7 @@
         <v>1.6</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU132" t="n">
         <v>2.12</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT133" t="n">
         <v>0.87</v>
@@ -27696,7 +27696,7 @@
         <v>0.82</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT134" t="n">
         <v>0.88</v>
@@ -27902,7 +27902,7 @@
         <v>0.88</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU135" t="n">
         <v>1.57</v>
@@ -28305,7 +28305,7 @@
         <v>1.55</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT137" t="n">
         <v>1.6</v>
@@ -29323,7 +29323,7 @@
         <v>0.53</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU142" t="n">
         <v>1.27</v>
@@ -29526,7 +29526,7 @@
         <v>2.53</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU143" t="n">
         <v>1.85</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT145" t="n">
         <v>0.87</v>
@@ -30335,10 +30335,10 @@
         <v>1.17</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU147" t="n">
         <v>1.62</v>
@@ -31553,7 +31553,7 @@
         <v>0.75</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT153" t="n">
         <v>0.88</v>
@@ -31759,7 +31759,7 @@
         <v>1.73</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU154" t="n">
         <v>1.59</v>
@@ -31962,7 +31962,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU155" t="n">
         <v>1.91</v>
@@ -32162,7 +32162,7 @@
         <v>1.83</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT156" t="n">
         <v>1.56</v>
@@ -32771,7 +32771,7 @@
         <v>0.85</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT159" t="n">
         <v>0.8</v>
@@ -33586,7 +33586,7 @@
         <v>1.6</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU163" t="n">
         <v>2</v>
@@ -33786,7 +33786,7 @@
         <v>1.08</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT164" t="n">
         <v>1.33</v>
@@ -33992,7 +33992,7 @@
         <v>0.88</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU165" t="n">
         <v>1.54</v>
@@ -34192,7 +34192,7 @@
         <v>1.08</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT166" t="n">
         <v>1.2</v>
@@ -34601,7 +34601,7 @@
         <v>0.53</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU168" t="n">
         <v>1.29</v>
@@ -35210,7 +35210,7 @@
         <v>1.47</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU171" t="n">
         <v>1.75</v>
@@ -36222,7 +36222,7 @@
         <v>1.5</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT176" t="n">
         <v>1.47</v>
@@ -36425,7 +36425,7 @@
         <v>0.86</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT177" t="n">
         <v>0.87</v>
@@ -36628,10 +36628,10 @@
         <v>1.64</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU178" t="n">
         <v>1.55</v>
@@ -37240,7 +37240,7 @@
         <v>1.67</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU181" t="n">
         <v>1.79</v>
@@ -37698,6 +37698,615 @@
       </c>
       <c r="BK183" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5396366</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45052.45833333334</v>
+      </c>
+      <c r="F184" t="n">
+        <v>9</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>2</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['82', '84']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5396367</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45052.625</v>
+      </c>
+      <c r="F185" t="n">
+        <v>9</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>3</v>
+      </c>
+      <c r="N185" t="n">
+        <v>4</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['23', '30', '81']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>2</v>
+      </c>
+      <c r="R185" t="n">
+        <v>12</v>
+      </c>
+      <c r="S185" t="n">
+        <v>14</v>
+      </c>
+      <c r="T185" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5396368</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45052.625</v>
+      </c>
+      <c r="F186" t="n">
+        <v>9</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>2</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>3</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['59', '89']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>7</v>
+      </c>
+      <c r="R186" t="n">
+        <v>4</v>
+      </c>
+      <c r="S186" t="n">
+        <v>11</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK186"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT13" t="n">
         <v>1.2</v>
@@ -3745,7 +3745,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU16" t="n">
         <v>1.37</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT23" t="n">
         <v>1.25</v>
@@ -5572,7 +5572,7 @@
         <v>1.47</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU25" t="n">
         <v>1.94</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT33" t="n">
         <v>1.47</v>
@@ -7399,7 +7399,7 @@
         <v>1.94</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU34" t="n">
         <v>1.11</v>
@@ -9429,7 +9429,7 @@
         <v>1.19</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU44" t="n">
         <v>1.5</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT48" t="n">
         <v>0.87</v>
@@ -12677,7 +12677,7 @@
         <v>2.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU60" t="n">
         <v>1.9</v>
@@ -12877,7 +12877,7 @@
         <v>2.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT61" t="n">
         <v>1.63</v>
@@ -15313,7 +15313,7 @@
         <v>0.4</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT73" t="n">
         <v>0.8</v>
@@ -16328,10 +16328,10 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU78" t="n">
         <v>2.06</v>
@@ -18967,7 +18967,7 @@
         <v>0.71</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT91" t="n">
         <v>0.88</v>
@@ -20188,7 +20188,7 @@
         <v>1.73</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU97" t="n">
         <v>1.39</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT100" t="n">
         <v>1.33</v>
@@ -21609,7 +21609,7 @@
         <v>0.53</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU104" t="n">
         <v>1.15</v>
@@ -24448,7 +24448,7 @@
         <v>1.56</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT118" t="n">
         <v>1.88</v>
@@ -24654,7 +24654,7 @@
         <v>0.88</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU119" t="n">
         <v>1.58</v>
@@ -25263,7 +25263,7 @@
         <v>0.88</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU122" t="n">
         <v>1.47</v>
@@ -25666,7 +25666,7 @@
         <v>1.9</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT124" t="n">
         <v>1.56</v>
@@ -28308,7 +28308,7 @@
         <v>1.94</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU137" t="n">
         <v>1.5</v>
@@ -29726,7 +29726,7 @@
         <v>1.73</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT144" t="n">
         <v>1.56</v>
@@ -30135,7 +30135,7 @@
         <v>1.6</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU146" t="n">
         <v>1.98</v>
@@ -30741,7 +30741,7 @@
         <v>1.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT149" t="n">
         <v>1.47</v>
@@ -32571,7 +32571,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU158" t="n">
         <v>1.89</v>
@@ -33177,7 +33177,7 @@
         <v>1.15</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT161" t="n">
         <v>1.2</v>
@@ -35819,7 +35819,7 @@
         <v>2.4</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU174" t="n">
         <v>2.09</v>
@@ -37237,7 +37237,7 @@
         <v>1.71</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT181" t="n">
         <v>1.88</v>
@@ -37762,13 +37762,13 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R184" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S184" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T184" t="n">
         <v>2.88</v>
@@ -37885,22 +37885,22 @@
         <v>2.43</v>
       </c>
       <c r="BF184" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BG184" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BH184" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI184" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ184" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="BK184" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185">
@@ -38307,6 +38307,209 @@
       </c>
       <c r="BK186" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5396369</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45053.45833333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>9</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2</v>
+      </c>
+      <c r="K187" t="n">
+        <v>3</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
+        <v>3</v>
+      </c>
+      <c r="N187" t="n">
+        <v>5</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['23', '68']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['28', '32', '72']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>9</v>
+      </c>
+      <c r="R187" t="n">
+        <v>7</v>
+      </c>
+      <c r="S187" t="n">
+        <v>16</v>
+      </c>
+      <c r="T187" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT3" t="n">
         <v>1.88</v>
@@ -1512,7 +1512,7 @@
         <v>1.94</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT12" t="n">
         <v>1.47</v>
@@ -3339,7 +3339,7 @@
         <v>1.19</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU14" t="n">
         <v>1.21</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT17" t="n">
         <v>0.88</v>
@@ -4760,7 +4760,7 @@
         <v>0.88</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU21" t="n">
         <v>1.4</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU24" t="n">
         <v>1.25</v>
@@ -5569,7 +5569,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT25" t="n">
         <v>1.69</v>
@@ -6384,7 +6384,7 @@
         <v>2.53</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU29" t="n">
         <v>1.71</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT31" t="n">
         <v>1.88</v>
@@ -6990,10 +6990,10 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU32" t="n">
         <v>1.31</v>
@@ -7602,7 +7602,7 @@
         <v>2.4</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU35" t="n">
         <v>1.63</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT36" t="n">
         <v>1.56</v>
@@ -8005,10 +8005,10 @@
         <v>1.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU37" t="n">
         <v>1.86</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT38" t="n">
         <v>1.2</v>
@@ -8414,7 +8414,7 @@
         <v>0.88</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU39" t="n">
         <v>1.42</v>
@@ -8614,7 +8614,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT40" t="n">
         <v>1.88</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT46" t="n">
         <v>1.63</v>
@@ -10241,7 +10241,7 @@
         <v>1.56</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU48" t="n">
         <v>2.25</v>
@@ -10444,7 +10444,7 @@
         <v>1.94</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU49" t="n">
         <v>1.13</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT52" t="n">
         <v>1.2</v>
@@ -11253,7 +11253,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT53" t="n">
         <v>1.2</v>
@@ -11662,7 +11662,7 @@
         <v>1.6</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU55" t="n">
         <v>2.04</v>
@@ -12474,7 +12474,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU59" t="n">
         <v>1.93</v>
@@ -13080,10 +13080,10 @@
         <v>1.4</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU62" t="n">
         <v>1.33</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT63" t="n">
         <v>0.88</v>
@@ -14098,7 +14098,7 @@
         <v>2.53</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU67" t="n">
         <v>1.88</v>
@@ -14301,7 +14301,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU68" t="n">
         <v>1.85</v>
@@ -14704,7 +14704,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT70" t="n">
         <v>1.25</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT72" t="n">
         <v>1.56</v>
@@ -15316,7 +15316,7 @@
         <v>1.56</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU73" t="n">
         <v>1.95</v>
@@ -15722,7 +15722,7 @@
         <v>0.88</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU75" t="n">
         <v>1.56</v>
@@ -16734,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU80" t="n">
         <v>1.2</v>
@@ -16937,10 +16937,10 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU81" t="n">
         <v>1.97</v>
@@ -17546,7 +17546,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT84" t="n">
         <v>1.2</v>
@@ -18158,7 +18158,7 @@
         <v>1.94</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU87" t="n">
         <v>1.42</v>
@@ -19173,7 +19173,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU92" t="n">
         <v>1.93</v>
@@ -19576,7 +19576,7 @@
         <v>1.71</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT94" t="n">
         <v>1.63</v>
@@ -20185,7 +20185,7 @@
         <v>1.57</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT97" t="n">
         <v>1.69</v>
@@ -20797,7 +20797,7 @@
         <v>1.56</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU100" t="n">
         <v>1.95</v>
@@ -21203,7 +21203,7 @@
         <v>1.6</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU102" t="n">
         <v>1.98</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT103" t="n">
         <v>1.25</v>
@@ -21606,7 +21606,7 @@
         <v>1.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT104" t="n">
         <v>1.69</v>
@@ -22215,7 +22215,7 @@
         <v>2.38</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT107" t="n">
         <v>1.56</v>
@@ -23436,7 +23436,7 @@
         <v>1.19</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU113" t="n">
         <v>1.64</v>
@@ -23636,7 +23636,7 @@
         <v>1.22</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT114" t="n">
         <v>1.2</v>
@@ -23842,7 +23842,7 @@
         <v>1.6</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU115" t="n">
         <v>2.07</v>
@@ -24042,7 +24042,7 @@
         <v>1.56</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT116" t="n">
         <v>1.47</v>
@@ -24245,10 +24245,10 @@
         <v>1.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU117" t="n">
         <v>1.83</v>
@@ -25466,7 +25466,7 @@
         <v>2.4</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU123" t="n">
         <v>2.01</v>
@@ -26278,7 +26278,7 @@
         <v>2.53</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU127" t="n">
         <v>1.79</v>
@@ -26478,7 +26478,7 @@
         <v>1.7</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT128" t="n">
         <v>1.47</v>
@@ -26884,7 +26884,7 @@
         <v>1.1</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT130" t="n">
         <v>1.2</v>
@@ -27087,10 +27087,10 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU131" t="n">
         <v>1.23</v>
@@ -27496,7 +27496,7 @@
         <v>0.88</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU133" t="n">
         <v>1.49</v>
@@ -28102,10 +28102,10 @@
         <v>0.73</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU136" t="n">
         <v>1.57</v>
@@ -28914,10 +28914,10 @@
         <v>1.18</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU140" t="n">
         <v>1.77</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT142" t="n">
         <v>1.25</v>
@@ -29932,7 +29932,7 @@
         <v>0.88</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU145" t="n">
         <v>1.45</v>
@@ -30538,10 +30538,10 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU148" t="n">
         <v>1.3</v>
@@ -31147,10 +31147,10 @@
         <v>0.92</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU151" t="n">
         <v>1.75</v>
@@ -31756,7 +31756,7 @@
         <v>1.58</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT154" t="n">
         <v>1.63</v>
@@ -32368,7 +32368,7 @@
         <v>0.88</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU157" t="n">
         <v>1.57</v>
@@ -32774,7 +32774,7 @@
         <v>1.19</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU159" t="n">
         <v>1.64</v>
@@ -32974,10 +32974,10 @@
         <v>0.92</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU160" t="n">
         <v>1.59</v>
@@ -33380,7 +33380,7 @@
         <v>0.77</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT162" t="n">
         <v>0.88</v>
@@ -33789,7 +33789,7 @@
         <v>0.88</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU164" t="n">
         <v>1.54</v>
@@ -34598,7 +34598,7 @@
         <v>1.54</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT168" t="n">
         <v>1.63</v>
@@ -35207,7 +35207,7 @@
         <v>1.21</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT171" t="n">
         <v>1.25</v>
@@ -35413,7 +35413,7 @@
         <v>0.88</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU172" t="n">
         <v>1.54</v>
@@ -36019,10 +36019,10 @@
         <v>1.21</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU175" t="n">
         <v>1.29</v>
@@ -36428,7 +36428,7 @@
         <v>1.19</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU177" t="n">
         <v>1.59</v>
@@ -36831,7 +36831,7 @@
         <v>0.93</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT179" t="n">
         <v>0.88</v>
@@ -38510,6 +38510,615 @@
       </c>
       <c r="BK187" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5396370</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45058.625</v>
+      </c>
+      <c r="F188" t="n">
+        <v>10</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>3</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>4</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['22', '64', '79']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>4</v>
+      </c>
+      <c r="R188" t="n">
+        <v>4</v>
+      </c>
+      <c r="S188" t="n">
+        <v>8</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X188" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5396371</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45058.625</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>2</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>2</v>
+      </c>
+      <c r="L189" t="n">
+        <v>3</v>
+      </c>
+      <c r="M189" t="n">
+        <v>2</v>
+      </c>
+      <c r="N189" t="n">
+        <v>5</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['16', '27', '71']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['85', '88']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>5</v>
+      </c>
+      <c r="R189" t="n">
+        <v>5</v>
+      </c>
+      <c r="S189" t="n">
+        <v>10</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V189" t="n">
+        <v>4</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X189" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5396372</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45058.625</v>
+      </c>
+      <c r="F190" t="n">
+        <v>10</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>5</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>6</v>
+      </c>
+      <c r="L190" t="n">
+        <v>6</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>7</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['4', '13', '20', '26', '27', '90']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>1</v>
+      </c>
+      <c r="R190" t="n">
+        <v>3</v>
+      </c>
+      <c r="S190" t="n">
+        <v>4</v>
+      </c>
+      <c r="T190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V190" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
         <v>1.69</v>
@@ -1715,7 +1715,7 @@
         <v>0.88</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT10" t="n">
         <v>0.88</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT11" t="n">
         <v>1.25</v>
@@ -2933,7 +2933,7 @@
         <v>1.56</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.56</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU19" t="n">
         <v>2.18</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU20" t="n">
         <v>1.76</v>
@@ -5775,7 +5775,7 @@
         <v>1.19</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU26" t="n">
         <v>1.42</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
         <v>1.63</v>
@@ -6181,7 +6181,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU28" t="n">
         <v>1.35</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT29" t="n">
         <v>0.8100000000000001</v>
@@ -7196,7 +7196,7 @@
         <v>1.56</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU33" t="n">
         <v>1.98</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT35" t="n">
         <v>0.75</v>
@@ -8211,7 +8211,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU38" t="n">
         <v>1.04</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1.25</v>
@@ -9020,10 +9020,10 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU42" t="n">
         <v>1.58</v>
@@ -9226,7 +9226,7 @@
         <v>0.88</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU43" t="n">
         <v>1.41</v>
@@ -10035,7 +10035,7 @@
         <v>2.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT47" t="n">
         <v>1.56</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT50" t="n">
         <v>1.25</v>
@@ -11053,7 +11053,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU52" t="n">
         <v>1.19</v>
@@ -11256,7 +11256,7 @@
         <v>1.56</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU53" t="n">
         <v>1.89</v>
@@ -11459,7 +11459,7 @@
         <v>0.88</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU54" t="n">
         <v>1.37</v>
@@ -11659,7 +11659,7 @@
         <v>1.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT55" t="n">
         <v>1.25</v>
@@ -12674,7 +12674,7 @@
         <v>1.6</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT60" t="n">
         <v>1.69</v>
@@ -13489,7 +13489,7 @@
         <v>1.19</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU64" t="n">
         <v>1.56</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU65" t="n">
         <v>1.87</v>
@@ -13892,10 +13892,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU66" t="n">
         <v>1.75</v>
@@ -14095,7 +14095,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT67" t="n">
         <v>0.75</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15519,7 +15519,7 @@
         <v>1.94</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU74" t="n">
         <v>1.34</v>
@@ -16125,7 +16125,7 @@
         <v>0.83</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
         <v>0.88</v>
@@ -16531,7 +16531,7 @@
         <v>1.8</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT79" t="n">
         <v>1.63</v>
@@ -17140,10 +17140,10 @@
         <v>0.83</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT83" t="n">
         <v>1.88</v>
@@ -17549,7 +17549,7 @@
         <v>1.81</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU84" t="n">
         <v>1.36</v>
@@ -17752,7 +17752,7 @@
         <v>1.19</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU85" t="n">
         <v>1.65</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT90" t="n">
         <v>1.63</v>
@@ -19376,7 +19376,7 @@
         <v>0.88</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU93" t="n">
         <v>1.55</v>
@@ -19779,10 +19779,10 @@
         <v>0.71</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU95" t="n">
         <v>1.77</v>
@@ -20388,10 +20388,10 @@
         <v>1.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU98" t="n">
         <v>1.85</v>
@@ -20594,7 +20594,7 @@
         <v>0.88</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU99" t="n">
         <v>1.42</v>
@@ -20997,7 +20997,7 @@
         <v>0.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT101" t="n">
         <v>0.88</v>
@@ -21200,7 +21200,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT102" t="n">
         <v>0.8100000000000001</v>
@@ -22621,7 +22621,7 @@
         <v>0.89</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT109" t="n">
         <v>1.25</v>
@@ -23027,7 +23027,7 @@
         <v>2.11</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT111" t="n">
         <v>1.56</v>
@@ -23233,7 +23233,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU112" t="n">
         <v>1.85</v>
@@ -23639,7 +23639,7 @@
         <v>1.81</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU114" t="n">
         <v>1.42</v>
@@ -23839,7 +23839,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
         <v>0.75</v>
@@ -24045,7 +24045,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU116" t="n">
         <v>1.13</v>
@@ -24857,7 +24857,7 @@
         <v>1.94</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU120" t="n">
         <v>1.56</v>
@@ -25463,7 +25463,7 @@
         <v>1.11</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT123" t="n">
         <v>0.8100000000000001</v>
@@ -26275,7 +26275,7 @@
         <v>1.3</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT127" t="n">
         <v>1.25</v>
@@ -26481,7 +26481,7 @@
         <v>1.81</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -26684,7 +26684,7 @@
         <v>0.88</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU129" t="n">
         <v>1.63</v>
@@ -26887,7 +26887,7 @@
         <v>1.56</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU130" t="n">
         <v>1.75</v>
@@ -27290,7 +27290,7 @@
         <v>1.7</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT132" t="n">
         <v>1.88</v>
@@ -28508,10 +28508,10 @@
         <v>1.82</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU138" t="n">
         <v>2.05</v>
@@ -28711,10 +28711,10 @@
         <v>1.27</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU139" t="n">
         <v>1.99</v>
@@ -29120,7 +29120,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU141" t="n">
         <v>1.89</v>
@@ -29523,7 +29523,7 @@
         <v>1.82</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT143" t="n">
         <v>1.88</v>
@@ -30132,7 +30132,7 @@
         <v>1.42</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT146" t="n">
         <v>1.69</v>
@@ -30744,7 +30744,7 @@
         <v>1.56</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU149" t="n">
         <v>1.7</v>
@@ -30944,10 +30944,10 @@
         <v>1.25</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU150" t="n">
         <v>1.98</v>
@@ -31350,10 +31350,10 @@
         <v>1.17</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU152" t="n">
         <v>1.81</v>
@@ -33180,7 +33180,7 @@
         <v>1.56</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU161" t="n">
         <v>1.72</v>
@@ -33583,7 +33583,7 @@
         <v>1.77</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT163" t="n">
         <v>1.88</v>
@@ -34195,7 +34195,7 @@
         <v>1.94</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU166" t="n">
         <v>1.49</v>
@@ -34395,10 +34395,10 @@
         <v>1.62</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU167" t="n">
         <v>1.79</v>
@@ -34801,7 +34801,7 @@
         <v>1.69</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT169" t="n">
         <v>1.56</v>
@@ -35004,10 +35004,10 @@
         <v>1.29</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU170" t="n">
         <v>1.97</v>
@@ -35616,7 +35616,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU173" t="n">
         <v>1.82</v>
@@ -35816,7 +35816,7 @@
         <v>1.64</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT174" t="n">
         <v>1.69</v>
@@ -36225,7 +36225,7 @@
         <v>1.94</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU176" t="n">
         <v>1.43</v>
@@ -37034,7 +37034,7 @@
         <v>1.57</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT180" t="n">
         <v>1.56</v>
@@ -39119,6 +39119,615 @@
       </c>
       <c r="BK190" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5396373</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>10</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2</v>
+      </c>
+      <c r="K191" t="n">
+        <v>3</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['36', '38']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>6</v>
+      </c>
+      <c r="R191" t="n">
+        <v>4</v>
+      </c>
+      <c r="S191" t="n">
+        <v>10</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5396374</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45059.65625</v>
+      </c>
+      <c r="F192" t="n">
+        <v>10</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>3</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2</v>
+      </c>
+      <c r="S192" t="n">
+        <v>5</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V192" t="n">
+        <v>7</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X192" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5396375</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45059.65625</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>4</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>5</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['49', '55', '65', '90+2']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>1</v>
+      </c>
+      <c r="R193" t="n">
+        <v>6</v>
+      </c>
+      <c r="S193" t="n">
+        <v>7</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V193" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X193" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
